--- a/API 명세/RestAPI 명세.xlsx
+++ b/API 명세/RestAPI 명세.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB2DFF-AF6C-460D-A3BD-924135275BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2280" windowWidth="21012" windowHeight="12756"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,25 +19,16 @@
     <definedName name="Body">Sheet1!$D:$D</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t xml:space="preserve"> '광역도시' 목록반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,12 +456,40 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/like/{boardName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>특정 계정 "좋아요" 게시글 반환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Member)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +538,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -700,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +857,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +904,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAED0450-AE23-43E9-967C-D51BD2DF9F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAED0450-AE23-43E9-967C-D51BD2DF9F43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +948,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0490E3B0-2E37-47D1-8462-DD0319BBB4A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0490E3B0-2E37-47D1-8462-DD0319BBB4A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,7 +992,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CBE424-5566-4587-88F9-6E833EC07A3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CBE424-5566-4587-88F9-6E833EC07A3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +1036,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B06A8F-A03F-4AE5-AF1E-B0800B311E45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B06A8F-A03F-4AE5-AF1E-B0800B311E45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,13 +1066,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>4339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>214980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1045,7 +1080,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D732782E-7187-4210-93C9-C6487E65E725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D732782E-7187-4210-93C9-C6487E65E725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,13 +1110,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1838324</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>210641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1089,7 +1124,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF111C94-A707-4AB3-8139-54E461AA69D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF111C94-A707-4AB3-8139-54E461AA69D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,13 +1154,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1838324</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>210641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1133,7 +1168,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41954A76-3F6B-468A-9B49-000DDB654CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41954A76-3F6B-468A-9B49-000DDB654CCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,13 +1198,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1838324</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>210641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1177,7 +1212,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4EA713-B726-49E7-B84E-AE6EFA9C9AB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4EA713-B726-49E7-B84E-AE6EFA9C9AB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,27 +1530,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="32.8984375" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1552,8 +1587,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1"/>
-    <row r="8" spans="1:5" ht="18" thickBot="1">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1">
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1578,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1">
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1">
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1">
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18" thickBot="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A14"/>
       <c r="B14" s="7" t="s">
         <v>29</v>
@@ -1634,8 +1669,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1"/>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
+    <row r="15" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" thickBot="1">
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
       <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
@@ -1660,8 +1695,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1"/>
-    <row r="19" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1">
+    <row r="18" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1711,7 @@
       </c>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="18" thickBot="1">
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="29"/>
       <c r="D20" s="41" t="s">
@@ -1684,7 +1719,7 @@
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" ht="18" thickBot="1">
+    <row r="21" spans="1:5" ht="17.25" thickBot="1">
       <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1696,7 +1731,7 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" ht="18" thickBot="1">
+    <row r="22" spans="1:5" ht="17.25" thickBot="1">
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +1755,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="18" thickBot="1">
+    <row r="24" spans="1:5" ht="17.25" thickBot="1">
       <c r="B24" s="2"/>
       <c r="C24" s="29"/>
       <c r="D24" s="41" t="s">
@@ -1728,7 +1763,7 @@
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:5" ht="18" thickBot="1">
+    <row r="25" spans="1:5" ht="17.25" thickBot="1">
       <c r="B25" s="18" t="s">
         <v>40</v>
       </c>
@@ -1744,11 +1779,11 @@
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="1:5" ht="18" thickBot="1">
+    <row r="27" spans="1:5" ht="17.25" thickBot="1">
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="1:5" ht="18" thickBot="1">
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1798,7 @@
       </c>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1">
+    <row r="29" spans="1:5" ht="17.25" thickBot="1">
       <c r="B29" s="2"/>
       <c r="C29" s="31"/>
       <c r="D29" s="41" t="s">
@@ -1771,7 +1806,7 @@
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="18" thickBot="1">
+    <row r="30" spans="1:5" ht="17.25" thickBot="1">
       <c r="B30" s="6" t="s">
         <v>29</v>
       </c>
@@ -1783,7 +1818,7 @@
       </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="18" thickBot="1">
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
       <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
@@ -1807,7 +1842,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="18" thickBot="1">
+    <row r="33" spans="1:5" ht="17.25" thickBot="1">
       <c r="B33" s="2"/>
       <c r="C33" s="31"/>
       <c r="D33" s="41" t="s">
@@ -1815,7 +1850,7 @@
       </c>
       <c r="E33" s="17"/>
     </row>
-    <row r="34" spans="1:5" ht="18" thickBot="1">
+    <row r="34" spans="1:5" ht="17.25" thickBot="1">
       <c r="B34" s="18" t="s">
         <v>39</v>
       </c>
@@ -1827,8 +1862,8 @@
       </c>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="18" thickBot="1"/>
-    <row r="36" spans="1:5" ht="18" thickBot="1">
+    <row r="35" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1843,149 +1878,161 @@
       </c>
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="1:5" ht="18" thickBot="1">
+    <row r="37" spans="1:5" ht="17.25" thickBot="1">
       <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>68</v>
+      <c r="C37" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>75</v>
       </c>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="1:5" ht="18" thickBot="1">
+    <row r="38" spans="1:5" ht="17.25" thickBot="1">
       <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D39" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" thickBot="1"/>
-    <row r="40" spans="1:5" ht="18" thickBot="1">
-      <c r="A40" s="4" t="s">
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B41" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="39" t="s">
+      <c r="C41" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D41" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="34"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" thickBot="1">
-      <c r="B41" s="36" t="s">
+      <c r="E41" s="34"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B42" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C42" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D42" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="34"/>
-    </row>
-    <row r="42" spans="1:5" ht="18" thickBot="1">
-      <c r="B42" s="37" t="s">
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B43" s="37" t="s">
         <v>38</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="34"/>
-    </row>
-    <row r="43" spans="1:5" ht="18" thickBot="1">
-      <c r="B43" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="34"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="34"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" thickBot="1"/>
-    <row r="45" spans="1:5" ht="18" thickBot="1">
-      <c r="A45" s="4" t="s">
+      <c r="E44" s="34"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="46" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B46" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C46" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D46" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="34"/>
-    </row>
-    <row r="46" spans="1:5" ht="18" thickBot="1">
-      <c r="B46" s="36" t="s">
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B47" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C47" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D47" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:5" ht="18" thickBot="1">
-      <c r="B47" s="37" t="s">
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B48" s="37" t="s">
         <v>38</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="34"/>
-    </row>
-    <row r="48" spans="1:5" ht="18" thickBot="1">
-      <c r="B48" s="38" t="s">
-        <v>40</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D48" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B49" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="1:5" ht="18" thickBot="1"/>
-    <row r="50" spans="1:5" ht="18" thickBot="1">
-      <c r="A50" s="4" t="s">
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B51" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C51" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D51" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="34"/>
+      <c r="E51" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
